--- a/Luban/Datas/hero.xlsx
+++ b/Luban/Datas/hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Jam101\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E558AC-5E46-40DC-AAE4-4B160B065906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A585DB8F-B333-4606-B280-944C3E7A2506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="3765" windowWidth="28800" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47205" yWindow="3240" windowWidth="28800" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -260,8 +260,20 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>c,s</t>
+    <t>HeroQuality</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;),(int#ref=TbSkill)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
     </r>
     <r>
       <rPr>
@@ -274,18 +286,6 @@
       </rPr>
       <t>,q</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeroQuality</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=;),(int#ref=TbSkill)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -704,7 +704,7 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -806,16 +806,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>5</v>
@@ -861,20 +861,18 @@
       <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>11</v>
+      <c r="G4" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>11</v>
+      <c r="I4" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>11</v>
